--- a/timesheet_DanielWilson_s266070.xlsx
+++ b/timesheet_DanielWilson_s266070.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Programming\GitHub\S20PRT585_Group-A\DanielWilson_s266070\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Programming\GitHub\S220PRT585_s266070\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA2DBC89-0AE8-4B19-87EF-E1D5EBBD426B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2ADB5A4C-D9FC-415A-AF35-D12D64FE6A28}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{471AB8EC-D1D5-41D0-B4E5-27338561C4E5}"/>
+    <workbookView xWindow="1125" yWindow="1005" windowWidth="21600" windowHeight="11385" xr2:uid="{471AB8EC-D1D5-41D0-B4E5-27338561C4E5}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
   <si>
     <t>Week 1</t>
   </si>
@@ -140,7 +140,10 @@
     <t>Got github up to scratch, relearnt how to use excel, got timesheet formatted, and installed visual studio.</t>
   </si>
   <si>
-    <t>still installing visual studio</t>
+    <t>Still installing visual studio</t>
+  </si>
+  <si>
+    <t>Started the MVC Tutorial</t>
   </si>
 </sst>
 </file>
@@ -670,7 +673,7 @@
   <dimension ref="A1:U15"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -754,7 +757,9 @@
       <c r="D2" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="E2" s="2"/>
+      <c r="E2" s="2" t="s">
+        <v>36</v>
+      </c>
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>

--- a/timesheet_DanielWilson_s266070.xlsx
+++ b/timesheet_DanielWilson_s266070.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Programming\GitHub\S220PRT585_s266070\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2ADB5A4C-D9FC-415A-AF35-D12D64FE6A28}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D40F856D-3E44-49F5-AF1E-60AD0EEAB3EA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1125" yWindow="1005" windowWidth="21600" windowHeight="11385" xr2:uid="{471AB8EC-D1D5-41D0-B4E5-27338561C4E5}"/>
+    <workbookView xWindow="660" yWindow="450" windowWidth="21600" windowHeight="11385" xr2:uid="{471AB8EC-D1D5-41D0-B4E5-27338561C4E5}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
   <si>
     <t>Week 1</t>
   </si>
@@ -144,6 +144,15 @@
   </si>
   <si>
     <t>Started the MVC Tutorial</t>
+  </si>
+  <si>
+    <t>Teeam meeting we complained about the tutorials being poorly written and we discussed what problems we had encountered</t>
+  </si>
+  <si>
+    <t>Continued the MVC Tutorial</t>
+  </si>
+  <si>
+    <t>Continued working on MVC Tutorial</t>
   </si>
 </sst>
 </file>
@@ -672,8 +681,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FFB8FECF-62AE-4913-A869-EE2F5B95DB99}">
   <dimension ref="A1:U15"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -760,9 +769,15 @@
       <c r="E2" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
+      <c r="F2" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="G2" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>39</v>
+      </c>
       <c r="I2" s="2"/>
       <c r="J2" s="2"/>
       <c r="K2" s="2"/>

--- a/timesheet_DanielWilson_s266070.xlsx
+++ b/timesheet_DanielWilson_s266070.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Programming\GitHub\S220PRT585_s266070\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D40F856D-3E44-49F5-AF1E-60AD0EEAB3EA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{396A1B67-C405-4F19-B274-3937AD1D0076}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="660" yWindow="450" windowWidth="21600" windowHeight="11385" xr2:uid="{471AB8EC-D1D5-41D0-B4E5-27338561C4E5}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="40">
   <si>
     <t>Week 1</t>
   </si>
@@ -681,8 +681,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FFB8FECF-62AE-4913-A869-EE2F5B95DB99}">
   <dimension ref="A1:U15"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -778,7 +778,9 @@
       <c r="H2" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="I2" s="2"/>
+      <c r="I2" s="2" t="s">
+        <v>39</v>
+      </c>
       <c r="J2" s="2"/>
       <c r="K2" s="2"/>
       <c r="L2" s="2"/>

--- a/timesheet_DanielWilson_s266070.xlsx
+++ b/timesheet_DanielWilson_s266070.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Programming\GitHub\S220PRT585_s266070\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{396A1B67-C405-4F19-B274-3937AD1D0076}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{696542AF-0ED9-4031-A0C4-C283508634CF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="660" yWindow="450" windowWidth="21600" windowHeight="11385" xr2:uid="{471AB8EC-D1D5-41D0-B4E5-27338561C4E5}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="43">
   <si>
     <t>Week 1</t>
   </si>
@@ -140,19 +140,28 @@
     <t>Got github up to scratch, relearnt how to use excel, got timesheet formatted, and installed visual studio.</t>
   </si>
   <si>
-    <t>Still installing visual studio</t>
-  </si>
-  <si>
-    <t>Started the MVC Tutorial</t>
-  </si>
-  <si>
-    <t>Teeam meeting we complained about the tutorials being poorly written and we discussed what problems we had encountered</t>
-  </si>
-  <si>
     <t>Continued the MVC Tutorial</t>
   </si>
   <si>
-    <t>Continued working on MVC Tutorial</t>
+    <t>Continued working on MVC Tutorial. Part 4 was plauged by Capitalisation problems.</t>
+  </si>
+  <si>
+    <t>Continued working on MVC Tutorial. Visual studio was causeing issues during part 5 by having different defualt SQL file save and load locations.</t>
+  </si>
+  <si>
+    <t>Teeam meeting we complained about the tutorials being poorly written and we discussed what problems we had encountered.</t>
+  </si>
+  <si>
+    <t>Team meeting we complained about more problems and organised to work together to finish the last section of the work. I think... Im very tired.</t>
+  </si>
+  <si>
+    <t>Still installing visual studio.</t>
+  </si>
+  <si>
+    <t>Started the MVC Tutorial.</t>
+  </si>
+  <si>
+    <t>Continued the MVC Tutorial.</t>
   </si>
 </sst>
 </file>
@@ -682,7 +691,7 @@
   <dimension ref="A1:U15"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -764,24 +773,26 @@
         <v>34</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="E2" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="G2" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="H2" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="F2" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="G2" s="10" t="s">
+      <c r="I2" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="J2" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="I2" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="J2" s="2"/>
       <c r="K2" s="2"/>
       <c r="L2" s="2"/>
       <c r="M2" s="2"/>

--- a/timesheet_DanielWilson_s266070.xlsx
+++ b/timesheet_DanielWilson_s266070.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23001"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Programming\GitHub\S220PRT585_s266070\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\drac1\Documents\GitHub\S220PRT585_s266070\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{696542AF-0ED9-4031-A0C4-C283508634CF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{137CE1A5-45A3-48B9-BC37-5B5C5488728C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="660" yWindow="450" windowWidth="21600" windowHeight="11385" xr2:uid="{471AB8EC-D1D5-41D0-B4E5-27338561C4E5}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{471AB8EC-D1D5-41D0-B4E5-27338561C4E5}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
   <si>
     <t>Week 1</t>
   </si>
@@ -140,9 +140,6 @@
     <t>Got github up to scratch, relearnt how to use excel, got timesheet formatted, and installed visual studio.</t>
   </si>
   <si>
-    <t>Continued the MVC Tutorial</t>
-  </si>
-  <si>
     <t>Continued working on MVC Tutorial. Part 4 was plauged by Capitalisation problems.</t>
   </si>
   <si>
@@ -162,6 +159,12 @@
   </si>
   <si>
     <t>Continued the MVC Tutorial.</t>
+  </si>
+  <si>
+    <t>Continued working on MVC tutorial.</t>
+  </si>
+  <si>
+    <t>Team meeting to try and resolve andy's error and finish the Tutorial.</t>
   </si>
 </sst>
 </file>
@@ -690,16 +693,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FFB8FECF-62AE-4913-A869-EE2F5B95DB99}">
   <dimension ref="A1:U15"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="21" width="30.7109375" customWidth="1"/>
+    <col min="2" max="21" width="30.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:21" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1"/>
       <c r="B1" s="8" t="s">
         <v>13</v>
@@ -762,7 +765,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="2" spans="1:21" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:21" ht="75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
         <v>0</v>
       </c>
@@ -773,30 +776,33 @@
         <v>34</v>
       </c>
       <c r="D2" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="F2" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="G2" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="J2" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="K2" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="G2" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="J2" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="K2" s="2"/>
-      <c r="L2" s="2"/>
+      <c r="L2" s="10" t="s">
+        <v>43</v>
+      </c>
       <c r="M2" s="2"/>
-      <c r="N2" s="2"/>
       <c r="O2" s="2"/>
       <c r="P2" s="2"/>
       <c r="Q2" s="2"/>
@@ -805,7 +811,7 @@
       <c r="T2" s="2"/>
       <c r="U2" s="3"/>
     </row>
-    <row r="3" spans="1:21" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:21" ht="75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
         <v>1</v>
       </c>
@@ -830,7 +836,7 @@
       <c r="T3" s="2"/>
       <c r="U3" s="3"/>
     </row>
-    <row r="4" spans="1:21" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:21" ht="75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
         <v>2</v>
       </c>
@@ -855,7 +861,7 @@
       <c r="T4" s="2"/>
       <c r="U4" s="3"/>
     </row>
-    <row r="5" spans="1:21" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:21" ht="75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="s">
         <v>3</v>
       </c>
@@ -880,7 +886,7 @@
       <c r="T5" s="2"/>
       <c r="U5" s="3"/>
     </row>
-    <row r="6" spans="1:21" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:21" ht="75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
         <v>4</v>
       </c>
@@ -905,7 +911,7 @@
       <c r="T6" s="2"/>
       <c r="U6" s="3"/>
     </row>
-    <row r="7" spans="1:21" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:21" ht="75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
         <v>5</v>
       </c>
@@ -930,7 +936,7 @@
       <c r="T7" s="2"/>
       <c r="U7" s="3"/>
     </row>
-    <row r="8" spans="1:21" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:21" ht="75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="6" t="s">
         <v>6</v>
       </c>
@@ -955,7 +961,7 @@
       <c r="T8" s="2"/>
       <c r="U8" s="3"/>
     </row>
-    <row r="9" spans="1:21" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:21" ht="75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="6" t="s">
         <v>7</v>
       </c>
@@ -980,7 +986,7 @@
       <c r="T9" s="2"/>
       <c r="U9" s="3"/>
     </row>
-    <row r="10" spans="1:21" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:21" ht="75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="6" t="s">
         <v>8</v>
       </c>
@@ -1005,7 +1011,7 @@
       <c r="T10" s="2"/>
       <c r="U10" s="3"/>
     </row>
-    <row r="11" spans="1:21" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:21" ht="75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="6" t="s">
         <v>9</v>
       </c>
@@ -1030,7 +1036,7 @@
       <c r="T11" s="2"/>
       <c r="U11" s="3"/>
     </row>
-    <row r="12" spans="1:21" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:21" ht="75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="6" t="s">
         <v>10</v>
       </c>
@@ -1055,7 +1061,7 @@
       <c r="T12" s="2"/>
       <c r="U12" s="3"/>
     </row>
-    <row r="13" spans="1:21" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:21" ht="75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="6" t="s">
         <v>11</v>
       </c>
@@ -1080,7 +1086,7 @@
       <c r="T13" s="2"/>
       <c r="U13" s="3"/>
     </row>
-    <row r="14" spans="1:21" ht="75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:21" ht="75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="7" t="s">
         <v>12</v>
       </c>
@@ -1105,7 +1111,7 @@
       <c r="T14" s="4"/>
       <c r="U14" s="5"/>
     </row>
-    <row r="15" spans="1:21" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="15" spans="1:21" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/timesheet_DanielWilson_s266070.xlsx
+++ b/timesheet_DanielWilson_s266070.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\drac1\Documents\GitHub\S220PRT585_s266070\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{137CE1A5-45A3-48B9-BC37-5B5C5488728C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F0395BF-F28A-447A-9F86-830288D70BEF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{471AB8EC-D1D5-41D0-B4E5-27338561C4E5}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="45">
   <si>
     <t>Week 1</t>
   </si>
@@ -158,13 +158,16 @@
     <t>Started the MVC Tutorial.</t>
   </si>
   <si>
-    <t>Continued the MVC Tutorial.</t>
-  </si>
-  <si>
-    <t>Continued working on MVC tutorial.</t>
-  </si>
-  <si>
     <t>Team meeting to try and resolve andy's error and finish the Tutorial.</t>
+  </si>
+  <si>
+    <t>Finished MVC tutorial.</t>
+  </si>
+  <si>
+    <t>Continued the MVC Tutorial. Moved tutorial from group repository to personal one.</t>
+  </si>
+  <si>
+    <t>Team meeting continued. Helped and with SQL issues.</t>
   </si>
 </sst>
 </file>
@@ -694,7 +697,7 @@
   <dimension ref="A1:U15"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="L2" sqref="L2"/>
+      <selection activeCell="M3" sqref="M3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -782,7 +785,7 @@
         <v>40</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="G2" s="10" t="s">
         <v>37</v>
@@ -800,9 +803,11 @@
         <v>42</v>
       </c>
       <c r="L2" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="M2" s="2"/>
+        <v>41</v>
+      </c>
+      <c r="M2" s="10" t="s">
+        <v>44</v>
+      </c>
       <c r="O2" s="2"/>
       <c r="P2" s="2"/>
       <c r="Q2" s="2"/>

--- a/timesheet_DanielWilson_s266070.xlsx
+++ b/timesheet_DanielWilson_s266070.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\drac1\Documents\GitHub\S220PRT585_s266070\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F0395BF-F28A-447A-9F86-830288D70BEF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84D16099-DF09-4DE6-8EC1-9B79775EFDC2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{471AB8EC-D1D5-41D0-B4E5-27338561C4E5}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
   <si>
     <t>Week 1</t>
   </si>
@@ -168,6 +168,9 @@
   </si>
   <si>
     <t>Team meeting continued. Helped and with SQL issues.</t>
+  </si>
+  <si>
+    <t>Team meeting continued.</t>
   </si>
 </sst>
 </file>
@@ -203,7 +206,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -346,11 +349,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
@@ -378,6 +392,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -697,7 +714,7 @@
   <dimension ref="A1:U15"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="M3" sqref="M3"/>
+      <selection activeCell="N3" sqref="N3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -807,6 +824,9 @@
       </c>
       <c r="M2" s="10" t="s">
         <v>44</v>
+      </c>
+      <c r="N2" s="11" t="s">
+        <v>45</v>
       </c>
       <c r="O2" s="2"/>
       <c r="P2" s="2"/>

--- a/timesheet_DanielWilson_s266070.xlsx
+++ b/timesheet_DanielWilson_s266070.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\drac1\Documents\GitHub\S220PRT585_s266070\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84D16099-DF09-4DE6-8EC1-9B79775EFDC2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF7B582D-F180-413C-B154-F3EAFEFAAC11}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{471AB8EC-D1D5-41D0-B4E5-27338561C4E5}"/>
   </bookViews>
@@ -158,9 +158,6 @@
     <t>Started the MVC Tutorial.</t>
   </si>
   <si>
-    <t>Team meeting to try and resolve andy's error and finish the Tutorial.</t>
-  </si>
-  <si>
     <t>Finished MVC tutorial.</t>
   </si>
   <si>
@@ -171,6 +168,9 @@
   </si>
   <si>
     <t>Team meeting continued.</t>
+  </si>
+  <si>
+    <t>In person team meeting to try and resolve andy's error and finish the Tutorial.</t>
   </si>
 </sst>
 </file>
@@ -714,7 +714,7 @@
   <dimension ref="A1:U15"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="N3" sqref="N3"/>
+      <selection activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -802,7 +802,7 @@
         <v>40</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G2" s="10" t="s">
         <v>37</v>
@@ -817,16 +817,16 @@
         <v>38</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="L2" s="10" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="M2" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="N2" s="11" t="s">
         <v>44</v>
-      </c>
-      <c r="N2" s="11" t="s">
-        <v>45</v>
       </c>
       <c r="O2" s="2"/>
       <c r="P2" s="2"/>

--- a/timesheet_DanielWilson_s266070.xlsx
+++ b/timesheet_DanielWilson_s266070.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\drac1\Documents\GitHub\S220PRT585_s266070\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Programming\GitHub\S220PRT585_s266070\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF7B582D-F180-413C-B154-F3EAFEFAAC11}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3949CA4B-A217-41E8-9936-2141A469F441}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{471AB8EC-D1D5-41D0-B4E5-27338561C4E5}"/>
+    <workbookView xWindow="660" yWindow="450" windowWidth="21600" windowHeight="11385" xr2:uid="{471AB8EC-D1D5-41D0-B4E5-27338561C4E5}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="49">
   <si>
     <t>Week 1</t>
   </si>
@@ -171,6 +171,15 @@
   </si>
   <si>
     <t>In person team meeting to try and resolve andy's error and finish the Tutorial.</t>
+  </si>
+  <si>
+    <t>Figuring out the connection string and conferming it works. Had problems with week 1 tutorial work caused by moving work from PC to laptop and back again.</t>
+  </si>
+  <si>
+    <t>Team meeting talked about problems with database migrations not working.</t>
+  </si>
+  <si>
+    <t>Researched Tag Helpers</t>
   </si>
 </sst>
 </file>
@@ -364,7 +373,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
@@ -396,6 +405,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -713,16 +725,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FFB8FECF-62AE-4913-A869-EE2F5B95DB99}">
   <dimension ref="A1:U15"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="L2" sqref="L2"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="21" width="30.6640625" customWidth="1"/>
+    <col min="2" max="21" width="30.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:21" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="8" t="s">
         <v>13</v>
@@ -785,7 +797,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="2" spans="1:21" ht="75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:21" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>0</v>
       </c>
@@ -836,13 +848,19 @@
       <c r="T2" s="2"/>
       <c r="U2" s="3"/>
     </row>
-    <row r="3" spans="1:21" ht="75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:21" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
+      <c r="B3" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C3" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>47</v>
+      </c>
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
       <c r="G3" s="2"/>
@@ -861,7 +879,7 @@
       <c r="T3" s="2"/>
       <c r="U3" s="3"/>
     </row>
-    <row r="4" spans="1:21" ht="75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:21" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
         <v>2</v>
       </c>
@@ -886,7 +904,7 @@
       <c r="T4" s="2"/>
       <c r="U4" s="3"/>
     </row>
-    <row r="5" spans="1:21" ht="75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:21" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
         <v>3</v>
       </c>
@@ -911,7 +929,7 @@
       <c r="T5" s="2"/>
       <c r="U5" s="3"/>
     </row>
-    <row r="6" spans="1:21" ht="75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:21" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
         <v>4</v>
       </c>
@@ -936,7 +954,7 @@
       <c r="T6" s="2"/>
       <c r="U6" s="3"/>
     </row>
-    <row r="7" spans="1:21" ht="75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:21" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
         <v>5</v>
       </c>
@@ -961,7 +979,7 @@
       <c r="T7" s="2"/>
       <c r="U7" s="3"/>
     </row>
-    <row r="8" spans="1:21" ht="75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:21" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
         <v>6</v>
       </c>
@@ -986,7 +1004,7 @@
       <c r="T8" s="2"/>
       <c r="U8" s="3"/>
     </row>
-    <row r="9" spans="1:21" ht="75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:21" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
         <v>7</v>
       </c>
@@ -1011,7 +1029,7 @@
       <c r="T9" s="2"/>
       <c r="U9" s="3"/>
     </row>
-    <row r="10" spans="1:21" ht="75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:21" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
         <v>8</v>
       </c>
@@ -1036,7 +1054,7 @@
       <c r="T10" s="2"/>
       <c r="U10" s="3"/>
     </row>
-    <row r="11" spans="1:21" ht="75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:21" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
         <v>9</v>
       </c>
@@ -1061,7 +1079,7 @@
       <c r="T11" s="2"/>
       <c r="U11" s="3"/>
     </row>
-    <row r="12" spans="1:21" ht="75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:21" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
         <v>10</v>
       </c>
@@ -1086,7 +1104,7 @@
       <c r="T12" s="2"/>
       <c r="U12" s="3"/>
     </row>
-    <row r="13" spans="1:21" ht="75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:21" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
         <v>11</v>
       </c>
@@ -1111,7 +1129,7 @@
       <c r="T13" s="2"/>
       <c r="U13" s="3"/>
     </row>
-    <row r="14" spans="1:21" ht="75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:21" ht="75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="7" t="s">
         <v>12</v>
       </c>
@@ -1136,7 +1154,7 @@
       <c r="T14" s="4"/>
       <c r="U14" s="5"/>
     </row>
-    <row r="15" spans="1:21" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
+    <row r="15" spans="1:21" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/timesheet_DanielWilson_s266070.xlsx
+++ b/timesheet_DanielWilson_s266070.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Programming\GitHub\S220PRT585_s266070\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3949CA4B-A217-41E8-9936-2141A469F441}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D4FFCEA-8C11-4E73-A244-C963A3DC1650}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="660" yWindow="450" windowWidth="21600" windowHeight="11385" xr2:uid="{471AB8EC-D1D5-41D0-B4E5-27338561C4E5}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="51">
   <si>
     <t>Week 1</t>
   </si>
@@ -180,6 +180,12 @@
   </si>
   <si>
     <t>Researched Tag Helpers</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Worked on week 2 tutorial </t>
+  </si>
+  <si>
+    <t>Team meeting</t>
   </si>
 </sst>
 </file>
@@ -725,8 +731,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FFB8FECF-62AE-4913-A869-EE2F5B95DB99}">
   <dimension ref="A1:U15"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -861,10 +867,18 @@
       <c r="D3" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
+      <c r="E3" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="G3" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>49</v>
+      </c>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
       <c r="K3" s="2"/>

--- a/timesheet_DanielWilson_s266070.xlsx
+++ b/timesheet_DanielWilson_s266070.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Programming\GitHub\S220PRT585_s266070\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D4FFCEA-8C11-4E73-A244-C963A3DC1650}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD04F48D-863D-48B7-A067-665001E7B048}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="660" yWindow="450" windowWidth="21600" windowHeight="11385" xr2:uid="{471AB8EC-D1D5-41D0-B4E5-27338561C4E5}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="52">
   <si>
     <t>Week 1</t>
   </si>
@@ -186,6 +186,9 @@
   </si>
   <si>
     <t>Team meeting</t>
+  </si>
+  <si>
+    <t>Team meeting continuted. Guzzi has problems with his enum.</t>
   </si>
 </sst>
 </file>
@@ -731,8 +734,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FFB8FECF-62AE-4913-A869-EE2F5B95DB99}">
   <dimension ref="A1:U15"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -876,11 +879,15 @@
       <c r="G3" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="H3" s="2" t="s">
+      <c r="H3" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="I3" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="I3" s="2"/>
-      <c r="J3" s="2"/>
+      <c r="J3" s="2" t="s">
+        <v>49</v>
+      </c>
       <c r="K3" s="2"/>
       <c r="L3" s="2"/>
       <c r="M3" s="2"/>

--- a/timesheet_DanielWilson_s266070.xlsx
+++ b/timesheet_DanielWilson_s266070.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Programming\GitHub\S220PRT585_s266070\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD04F48D-863D-48B7-A067-665001E7B048}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C574F53-ECFE-4648-85FA-B8493E64DEEC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="660" yWindow="450" windowWidth="21600" windowHeight="11385" xr2:uid="{471AB8EC-D1D5-41D0-B4E5-27338561C4E5}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="52">
   <si>
     <t>Week 1</t>
   </si>
@@ -734,8 +734,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FFB8FECF-62AE-4913-A869-EE2F5B95DB99}">
   <dimension ref="A1:U15"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="J3" sqref="J3"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -882,13 +882,15 @@
       <c r="H3" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="I3" s="2" t="s">
-        <v>49</v>
+      <c r="I3" s="10" t="s">
+        <v>50</v>
       </c>
       <c r="J3" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="K3" s="2"/>
+      <c r="K3" s="2" t="s">
+        <v>49</v>
+      </c>
       <c r="L3" s="2"/>
       <c r="M3" s="2"/>
       <c r="N3" s="2"/>

--- a/timesheet_DanielWilson_s266070.xlsx
+++ b/timesheet_DanielWilson_s266070.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23001"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Programming\GitHub\S220PRT585_s266070\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\drac1\Documents\GitHub\S220PRT585_s266070\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C574F53-ECFE-4648-85FA-B8493E64DEEC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CA47227-AFE3-4626-A497-5E4DCA8421DB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="660" yWindow="450" windowWidth="21600" windowHeight="11385" xr2:uid="{471AB8EC-D1D5-41D0-B4E5-27338561C4E5}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{471AB8EC-D1D5-41D0-B4E5-27338561C4E5}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="60">
   <si>
     <t>Week 1</t>
   </si>
@@ -189,6 +189,30 @@
   </si>
   <si>
     <t>Team meeting continuted. Guzzi has problems with his enum.</t>
+  </si>
+  <si>
+    <t>Reaserching ViewBags</t>
+  </si>
+  <si>
+    <t>Team meeting. To try and resolve the Category problem.</t>
+  </si>
+  <si>
+    <t>Worked on week 2 tutorial. Stuck on category.</t>
+  </si>
+  <si>
+    <t>Worked on week 2 tutorial. Still stuck on the god damn category.</t>
+  </si>
+  <si>
+    <t>Team meeting continued. If nare fixes this problem in 10 seconds when I ask him im going to bash my head against a wall for an hour.</t>
+  </si>
+  <si>
+    <t>Team meeting. Guzzi figured it out.</t>
+  </si>
+  <si>
+    <t>Week 2 tutorial. Headbashing will comence shortly.</t>
+  </si>
+  <si>
+    <t>Week 2 tutorial. I give up.</t>
   </si>
 </sst>
 </file>
@@ -734,16 +758,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FFB8FECF-62AE-4913-A869-EE2F5B95DB99}">
   <dimension ref="A1:U15"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="N1" workbookViewId="0">
+      <selection activeCell="R4" sqref="R4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="21" width="30.7109375" customWidth="1"/>
+    <col min="2" max="21" width="30.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:21" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1"/>
       <c r="B1" s="8" t="s">
         <v>13</v>
@@ -806,7 +830,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="2" spans="1:21" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:21" ht="75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
         <v>0</v>
       </c>
@@ -857,7 +881,7 @@
       <c r="T2" s="2"/>
       <c r="U2" s="3"/>
     </row>
-    <row r="3" spans="1:21" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:21" ht="75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
         <v>1</v>
       </c>
@@ -889,20 +913,34 @@
         <v>49</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="L3" s="2"/>
-      <c r="M3" s="2"/>
-      <c r="N3" s="2"/>
-      <c r="O3" s="2"/>
-      <c r="P3" s="2"/>
-      <c r="Q3" s="2"/>
-      <c r="R3" s="2"/>
+        <v>54</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="N3" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="O3" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="P3" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q3" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="R3" s="2" t="s">
+        <v>59</v>
+      </c>
       <c r="S3" s="2"/>
       <c r="T3" s="2"/>
       <c r="U3" s="3"/>
     </row>
-    <row r="4" spans="1:21" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:21" ht="75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
         <v>2</v>
       </c>
@@ -927,7 +965,7 @@
       <c r="T4" s="2"/>
       <c r="U4" s="3"/>
     </row>
-    <row r="5" spans="1:21" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:21" ht="75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="s">
         <v>3</v>
       </c>
@@ -952,7 +990,7 @@
       <c r="T5" s="2"/>
       <c r="U5" s="3"/>
     </row>
-    <row r="6" spans="1:21" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:21" ht="75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
         <v>4</v>
       </c>
@@ -977,7 +1015,7 @@
       <c r="T6" s="2"/>
       <c r="U6" s="3"/>
     </row>
-    <row r="7" spans="1:21" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:21" ht="75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
         <v>5</v>
       </c>
@@ -1002,7 +1040,7 @@
       <c r="T7" s="2"/>
       <c r="U7" s="3"/>
     </row>
-    <row r="8" spans="1:21" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:21" ht="75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="6" t="s">
         <v>6</v>
       </c>
@@ -1027,7 +1065,7 @@
       <c r="T8" s="2"/>
       <c r="U8" s="3"/>
     </row>
-    <row r="9" spans="1:21" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:21" ht="75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="6" t="s">
         <v>7</v>
       </c>
@@ -1052,7 +1090,7 @@
       <c r="T9" s="2"/>
       <c r="U9" s="3"/>
     </row>
-    <row r="10" spans="1:21" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:21" ht="75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="6" t="s">
         <v>8</v>
       </c>
@@ -1077,7 +1115,7 @@
       <c r="T10" s="2"/>
       <c r="U10" s="3"/>
     </row>
-    <row r="11" spans="1:21" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:21" ht="75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="6" t="s">
         <v>9</v>
       </c>
@@ -1102,7 +1140,7 @@
       <c r="T11" s="2"/>
       <c r="U11" s="3"/>
     </row>
-    <row r="12" spans="1:21" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:21" ht="75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="6" t="s">
         <v>10</v>
       </c>
@@ -1127,7 +1165,7 @@
       <c r="T12" s="2"/>
       <c r="U12" s="3"/>
     </row>
-    <row r="13" spans="1:21" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:21" ht="75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="6" t="s">
         <v>11</v>
       </c>
@@ -1152,7 +1190,7 @@
       <c r="T13" s="2"/>
       <c r="U13" s="3"/>
     </row>
-    <row r="14" spans="1:21" ht="75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:21" ht="75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="7" t="s">
         <v>12</v>
       </c>
@@ -1177,7 +1215,7 @@
       <c r="T14" s="4"/>
       <c r="U14" s="5"/>
     </row>
-    <row r="15" spans="1:21" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="15" spans="1:21" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/timesheet_DanielWilson_s266070.xlsx
+++ b/timesheet_DanielWilson_s266070.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\drac1\Documents\GitHub\S220PRT585_s266070\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Programming\GitHub\S220PRT585_s266070\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CA47227-AFE3-4626-A497-5E4DCA8421DB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6472E2AB-EB21-45FC-A85F-813C09D47ACC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{471AB8EC-D1D5-41D0-B4E5-27338561C4E5}"/>
+    <workbookView xWindow="660" yWindow="450" windowWidth="21600" windowHeight="11385" xr2:uid="{471AB8EC-D1D5-41D0-B4E5-27338561C4E5}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="61">
   <si>
     <t>Week 1</t>
   </si>
@@ -213,6 +213,9 @@
   </si>
   <si>
     <t>Week 2 tutorial. I give up.</t>
+  </si>
+  <si>
+    <t>Team meeting continues</t>
   </si>
 </sst>
 </file>
@@ -758,16 +761,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FFB8FECF-62AE-4913-A869-EE2F5B95DB99}">
   <dimension ref="A1:U15"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="N1" workbookViewId="0">
-      <selection activeCell="R4" sqref="R4"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="21" width="30.6640625" customWidth="1"/>
+    <col min="2" max="21" width="30.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:21" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="8" t="s">
         <v>13</v>
@@ -830,7 +833,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="2" spans="1:21" ht="75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:21" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>0</v>
       </c>
@@ -881,7 +884,7 @@
       <c r="T2" s="2"/>
       <c r="U2" s="3"/>
     </row>
-    <row r="3" spans="1:21" ht="75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:21" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>1</v>
       </c>
@@ -940,13 +943,19 @@
       <c r="T3" s="2"/>
       <c r="U3" s="3"/>
     </row>
-    <row r="4" spans="1:21" ht="75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:21" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
+      <c r="B4" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="D4" s="10" t="s">
+        <v>60</v>
+      </c>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
@@ -965,7 +974,7 @@
       <c r="T4" s="2"/>
       <c r="U4" s="3"/>
     </row>
-    <row r="5" spans="1:21" ht="75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:21" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
         <v>3</v>
       </c>
@@ -990,7 +999,7 @@
       <c r="T5" s="2"/>
       <c r="U5" s="3"/>
     </row>
-    <row r="6" spans="1:21" ht="75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:21" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
         <v>4</v>
       </c>
@@ -1015,7 +1024,7 @@
       <c r="T6" s="2"/>
       <c r="U6" s="3"/>
     </row>
-    <row r="7" spans="1:21" ht="75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:21" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
         <v>5</v>
       </c>
@@ -1040,7 +1049,7 @@
       <c r="T7" s="2"/>
       <c r="U7" s="3"/>
     </row>
-    <row r="8" spans="1:21" ht="75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:21" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
         <v>6</v>
       </c>
@@ -1065,7 +1074,7 @@
       <c r="T8" s="2"/>
       <c r="U8" s="3"/>
     </row>
-    <row r="9" spans="1:21" ht="75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:21" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
         <v>7</v>
       </c>
@@ -1090,7 +1099,7 @@
       <c r="T9" s="2"/>
       <c r="U9" s="3"/>
     </row>
-    <row r="10" spans="1:21" ht="75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:21" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
         <v>8</v>
       </c>
@@ -1115,7 +1124,7 @@
       <c r="T10" s="2"/>
       <c r="U10" s="3"/>
     </row>
-    <row r="11" spans="1:21" ht="75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:21" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
         <v>9</v>
       </c>
@@ -1140,7 +1149,7 @@
       <c r="T11" s="2"/>
       <c r="U11" s="3"/>
     </row>
-    <row r="12" spans="1:21" ht="75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:21" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
         <v>10</v>
       </c>
@@ -1165,7 +1174,7 @@
       <c r="T12" s="2"/>
       <c r="U12" s="3"/>
     </row>
-    <row r="13" spans="1:21" ht="75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:21" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
         <v>11</v>
       </c>
@@ -1190,7 +1199,7 @@
       <c r="T13" s="2"/>
       <c r="U13" s="3"/>
     </row>
-    <row r="14" spans="1:21" ht="75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:21" ht="75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="7" t="s">
         <v>12</v>
       </c>
@@ -1215,7 +1224,7 @@
       <c r="T14" s="4"/>
       <c r="U14" s="5"/>
     </row>
-    <row r="15" spans="1:21" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
+    <row r="15" spans="1:21" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/timesheet_DanielWilson_s266070.xlsx
+++ b/timesheet_DanielWilson_s266070.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Programming\GitHub\S220PRT585_s266070\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6472E2AB-EB21-45FC-A85F-813C09D47ACC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{554B867B-ABA0-498E-9F51-8EF395366BFC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="660" yWindow="450" windowWidth="21600" windowHeight="11385" xr2:uid="{471AB8EC-D1D5-41D0-B4E5-27338561C4E5}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="65">
   <si>
     <t>Week 1</t>
   </si>
@@ -216,6 +216,18 @@
   </si>
   <si>
     <t>Team meeting continues</t>
+  </si>
+  <si>
+    <t>Started week 3 tutorial. Downloaded an installed postman.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Continued week 3 tutorial </t>
+  </si>
+  <si>
+    <t>Researched disscussion topics.</t>
+  </si>
+  <si>
+    <t>Continued Researching disscussion topics.</t>
   </si>
 </sst>
 </file>
@@ -409,7 +421,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
@@ -444,6 +456,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -761,8 +776,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FFB8FECF-62AE-4913-A869-EE2F5B95DB99}">
   <dimension ref="A1:U15"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -950,16 +965,24 @@
       <c r="B4" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="C4" s="10" t="s">
+      <c r="C4" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="D4" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="E4" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="D4" s="10" t="s">
+      <c r="F4" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
+      <c r="G4" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>62</v>
+      </c>
       <c r="I4" s="2"/>
       <c r="J4" s="2"/>
       <c r="K4" s="2"/>

--- a/timesheet_DanielWilson_s266070.xlsx
+++ b/timesheet_DanielWilson_s266070.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Programming\GitHub\S220PRT585_s266070\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{554B867B-ABA0-498E-9F51-8EF395366BFC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{519A3643-AC02-4D00-987D-D04E29D7272A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="660" yWindow="450" windowWidth="21600" windowHeight="11385" xr2:uid="{471AB8EC-D1D5-41D0-B4E5-27338561C4E5}"/>
   </bookViews>
@@ -221,13 +221,13 @@
     <t>Started week 3 tutorial. Downloaded an installed postman.</t>
   </si>
   <si>
-    <t xml:space="preserve">Continued week 3 tutorial </t>
-  </si>
-  <si>
     <t>Researched disscussion topics.</t>
   </si>
   <si>
     <t>Continued Researching disscussion topics.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Finished week 3 tutorial </t>
   </si>
 </sst>
 </file>
@@ -776,8 +776,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FFB8FECF-62AE-4913-A869-EE2F5B95DB99}">
   <dimension ref="A1:U15"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -966,10 +966,10 @@
         <v>50</v>
       </c>
       <c r="C4" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="D4" s="13" t="s">
         <v>63</v>
-      </c>
-      <c r="D4" s="13" t="s">
-        <v>64</v>
       </c>
       <c r="E4" s="10" t="s">
         <v>50</v>
@@ -981,7 +981,7 @@
         <v>61</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="I4" s="2"/>
       <c r="J4" s="2"/>

--- a/timesheet_DanielWilson_s266070.xlsx
+++ b/timesheet_DanielWilson_s266070.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Programming\GitHub\S220PRT585_s266070\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\drac1\Documents\GitHub\S220PRT585_s266070\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{519A3643-AC02-4D00-987D-D04E29D7272A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{319F824F-3F38-4EA6-8B13-48D7CE6E6C80}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="660" yWindow="450" windowWidth="21600" windowHeight="11385" xr2:uid="{471AB8EC-D1D5-41D0-B4E5-27338561C4E5}"/>
+    <workbookView xWindow="768" yWindow="768" windowWidth="17280" windowHeight="8964" xr2:uid="{471AB8EC-D1D5-41D0-B4E5-27338561C4E5}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="66">
   <si>
     <t>Week 1</t>
   </si>
@@ -228,6 +228,9 @@
   </si>
   <si>
     <t xml:space="preserve">Finished week 3 tutorial </t>
+  </si>
+  <si>
+    <t>Team meeting.</t>
   </si>
 </sst>
 </file>
@@ -776,16 +779,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FFB8FECF-62AE-4913-A869-EE2F5B95DB99}">
   <dimension ref="A1:U15"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="F3" workbookViewId="0">
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="21" width="30.7109375" customWidth="1"/>
+    <col min="2" max="21" width="30.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:21" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1"/>
       <c r="B1" s="8" t="s">
         <v>13</v>
@@ -848,7 +851,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="2" spans="1:21" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:21" ht="75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
         <v>0</v>
       </c>
@@ -899,7 +902,7 @@
       <c r="T2" s="2"/>
       <c r="U2" s="3"/>
     </row>
-    <row r="3" spans="1:21" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:21" ht="75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
         <v>1</v>
       </c>
@@ -958,7 +961,7 @@
       <c r="T3" s="2"/>
       <c r="U3" s="3"/>
     </row>
-    <row r="4" spans="1:21" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:21" ht="75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
         <v>2</v>
       </c>
@@ -983,7 +986,9 @@
       <c r="H4" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="I4" s="2"/>
+      <c r="I4" s="10" t="s">
+        <v>65</v>
+      </c>
       <c r="J4" s="2"/>
       <c r="K4" s="2"/>
       <c r="L4" s="2"/>
@@ -997,7 +1002,7 @@
       <c r="T4" s="2"/>
       <c r="U4" s="3"/>
     </row>
-    <row r="5" spans="1:21" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:21" ht="75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="s">
         <v>3</v>
       </c>
@@ -1022,7 +1027,7 @@
       <c r="T5" s="2"/>
       <c r="U5" s="3"/>
     </row>
-    <row r="6" spans="1:21" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:21" ht="75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
         <v>4</v>
       </c>
@@ -1047,7 +1052,7 @@
       <c r="T6" s="2"/>
       <c r="U6" s="3"/>
     </row>
-    <row r="7" spans="1:21" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:21" ht="75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
         <v>5</v>
       </c>
@@ -1072,7 +1077,7 @@
       <c r="T7" s="2"/>
       <c r="U7" s="3"/>
     </row>
-    <row r="8" spans="1:21" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:21" ht="75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="6" t="s">
         <v>6</v>
       </c>
@@ -1097,7 +1102,7 @@
       <c r="T8" s="2"/>
       <c r="U8" s="3"/>
     </row>
-    <row r="9" spans="1:21" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:21" ht="75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="6" t="s">
         <v>7</v>
       </c>
@@ -1122,7 +1127,7 @@
       <c r="T9" s="2"/>
       <c r="U9" s="3"/>
     </row>
-    <row r="10" spans="1:21" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:21" ht="75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="6" t="s">
         <v>8</v>
       </c>
@@ -1147,7 +1152,7 @@
       <c r="T10" s="2"/>
       <c r="U10" s="3"/>
     </row>
-    <row r="11" spans="1:21" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:21" ht="75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="6" t="s">
         <v>9</v>
       </c>
@@ -1172,7 +1177,7 @@
       <c r="T11" s="2"/>
       <c r="U11" s="3"/>
     </row>
-    <row r="12" spans="1:21" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:21" ht="75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="6" t="s">
         <v>10</v>
       </c>
@@ -1197,7 +1202,7 @@
       <c r="T12" s="2"/>
       <c r="U12" s="3"/>
     </row>
-    <row r="13" spans="1:21" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:21" ht="75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="6" t="s">
         <v>11</v>
       </c>
@@ -1222,7 +1227,7 @@
       <c r="T13" s="2"/>
       <c r="U13" s="3"/>
     </row>
-    <row r="14" spans="1:21" ht="75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:21" ht="75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="7" t="s">
         <v>12</v>
       </c>
@@ -1247,7 +1252,7 @@
       <c r="T14" s="4"/>
       <c r="U14" s="5"/>
     </row>
-    <row r="15" spans="1:21" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="15" spans="1:21" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/timesheet_DanielWilson_s266070.xlsx
+++ b/timesheet_DanielWilson_s266070.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\drac1\Documents\GitHub\S220PRT585_s266070\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Programming\GitHub\S220PRT585_s266070\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{319F824F-3F38-4EA6-8B13-48D7CE6E6C80}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68EF333F-36CC-48C5-A0E3-ADA22278E453}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="768" yWindow="768" windowWidth="17280" windowHeight="8964" xr2:uid="{471AB8EC-D1D5-41D0-B4E5-27338561C4E5}"/>
+    <workbookView xWindow="660" yWindow="450" windowWidth="21600" windowHeight="11385" xr2:uid="{471AB8EC-D1D5-41D0-B4E5-27338561C4E5}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="68">
   <si>
     <t>Week 1</t>
   </si>
@@ -231,6 +231,12 @@
   </si>
   <si>
     <t>Team meeting.</t>
+  </si>
+  <si>
+    <t>Started week 4 tutorial. Got stuck on changing the category details to use viewmodel.</t>
+  </si>
+  <si>
+    <t>Contuined week 4 tutorial. Fixed the problem, im an idiot who cant tell the difference between edit and details.</t>
   </si>
 </sst>
 </file>
@@ -779,16 +785,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FFB8FECF-62AE-4913-A869-EE2F5B95DB99}">
   <dimension ref="A1:U15"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="F3" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="21" width="30.6640625" customWidth="1"/>
+    <col min="2" max="21" width="30.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:21" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="8" t="s">
         <v>13</v>
@@ -851,7 +857,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="2" spans="1:21" ht="75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:21" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>0</v>
       </c>
@@ -902,7 +908,7 @@
       <c r="T2" s="2"/>
       <c r="U2" s="3"/>
     </row>
-    <row r="3" spans="1:21" ht="75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:21" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>1</v>
       </c>
@@ -961,7 +967,7 @@
       <c r="T3" s="2"/>
       <c r="U3" s="3"/>
     </row>
-    <row r="4" spans="1:21" ht="75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:21" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
         <v>2</v>
       </c>
@@ -1002,14 +1008,22 @@
       <c r="T4" s="2"/>
       <c r="U4" s="3"/>
     </row>
-    <row r="5" spans="1:21" ht="75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:21" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
+      <c r="B5" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>67</v>
+      </c>
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
       <c r="H5" s="2"/>
@@ -1027,7 +1041,7 @@
       <c r="T5" s="2"/>
       <c r="U5" s="3"/>
     </row>
-    <row r="6" spans="1:21" ht="75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:21" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
         <v>4</v>
       </c>
@@ -1052,7 +1066,7 @@
       <c r="T6" s="2"/>
       <c r="U6" s="3"/>
     </row>
-    <row r="7" spans="1:21" ht="75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:21" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
         <v>5</v>
       </c>
@@ -1077,7 +1091,7 @@
       <c r="T7" s="2"/>
       <c r="U7" s="3"/>
     </row>
-    <row r="8" spans="1:21" ht="75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:21" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
         <v>6</v>
       </c>
@@ -1102,7 +1116,7 @@
       <c r="T8" s="2"/>
       <c r="U8" s="3"/>
     </row>
-    <row r="9" spans="1:21" ht="75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:21" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
         <v>7</v>
       </c>
@@ -1127,7 +1141,7 @@
       <c r="T9" s="2"/>
       <c r="U9" s="3"/>
     </row>
-    <row r="10" spans="1:21" ht="75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:21" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
         <v>8</v>
       </c>
@@ -1152,7 +1166,7 @@
       <c r="T10" s="2"/>
       <c r="U10" s="3"/>
     </row>
-    <row r="11" spans="1:21" ht="75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:21" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
         <v>9</v>
       </c>
@@ -1177,7 +1191,7 @@
       <c r="T11" s="2"/>
       <c r="U11" s="3"/>
     </row>
-    <row r="12" spans="1:21" ht="75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:21" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
         <v>10</v>
       </c>
@@ -1202,7 +1216,7 @@
       <c r="T12" s="2"/>
       <c r="U12" s="3"/>
     </row>
-    <row r="13" spans="1:21" ht="75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:21" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
         <v>11</v>
       </c>
@@ -1227,7 +1241,7 @@
       <c r="T13" s="2"/>
       <c r="U13" s="3"/>
     </row>
-    <row r="14" spans="1:21" ht="75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:21" ht="75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="7" t="s">
         <v>12</v>
       </c>
@@ -1252,7 +1266,7 @@
       <c r="T14" s="4"/>
       <c r="U14" s="5"/>
     </row>
-    <row r="15" spans="1:21" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
+    <row r="15" spans="1:21" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/timesheet_DanielWilson_s266070.xlsx
+++ b/timesheet_DanielWilson_s266070.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Programming\GitHub\S220PRT585_s266070\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68EF333F-36CC-48C5-A0E3-ADA22278E453}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97514BAF-EABF-4907-8354-B6DDCBCCBEC9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="660" yWindow="450" windowWidth="21600" windowHeight="11385" xr2:uid="{471AB8EC-D1D5-41D0-B4E5-27338561C4E5}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="69">
   <si>
     <t>Week 1</t>
   </si>
@@ -237,6 +237,9 @@
   </si>
   <si>
     <t>Contuined week 4 tutorial. Fixed the problem, im an idiot who cant tell the difference between edit and details.</t>
+  </si>
+  <si>
+    <t>Continued week 4 tutorial. Finished task 1.</t>
   </si>
 </sst>
 </file>
@@ -785,8 +788,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FFB8FECF-62AE-4913-A869-EE2F5B95DB99}">
   <dimension ref="A1:U15"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1024,7 +1027,9 @@
       <c r="E5" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="F5" s="2"/>
+      <c r="F5" s="2" t="s">
+        <v>68</v>
+      </c>
       <c r="G5" s="2"/>
       <c r="H5" s="2"/>
       <c r="I5" s="2"/>

--- a/timesheet_DanielWilson_s266070.xlsx
+++ b/timesheet_DanielWilson_s266070.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Programming\GitHub\S220PRT585_s266070\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97514BAF-EABF-4907-8354-B6DDCBCCBEC9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49C0309B-9C69-4E77-A6D0-9AB5E04F1626}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="660" yWindow="450" windowWidth="21600" windowHeight="11385" xr2:uid="{471AB8EC-D1D5-41D0-B4E5-27338561C4E5}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="71">
   <si>
     <t>Week 1</t>
   </si>
@@ -240,6 +240,12 @@
   </si>
   <si>
     <t>Continued week 4 tutorial. Finished task 1.</t>
+  </si>
+  <si>
+    <t>Continued week 4 tutorial. Started task 2 had to stop to update visual studios.</t>
+  </si>
+  <si>
+    <t>My internet is really crappy today still updating. Was at 46% when I had to leave for class.</t>
   </si>
 </sst>
 </file>
@@ -788,8 +794,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FFB8FECF-62AE-4913-A869-EE2F5B95DB99}">
   <dimension ref="A1:U15"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="D3" workbookViewId="0">
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1030,8 +1036,12 @@
       <c r="F5" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
+      <c r="G5" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>70</v>
+      </c>
       <c r="I5" s="2"/>
       <c r="J5" s="2"/>
       <c r="K5" s="2"/>

--- a/timesheet_DanielWilson_s266070.xlsx
+++ b/timesheet_DanielWilson_s266070.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Programming\GitHub\S220PRT585_s266070\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49C0309B-9C69-4E77-A6D0-9AB5E04F1626}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CAEA5A9-CB19-44E0-ABB3-AA7C2BF2475B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="660" yWindow="450" windowWidth="21600" windowHeight="11385" xr2:uid="{471AB8EC-D1D5-41D0-B4E5-27338561C4E5}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="78">
   <si>
     <t>Week 1</t>
   </si>
@@ -246,6 +246,27 @@
   </si>
   <si>
     <t>My internet is really crappy today still updating. Was at 46% when I had to leave for class.</t>
+  </si>
+  <si>
+    <t>Team meeting. Discussed possible project and compiled questions about project to ask barbara.</t>
+  </si>
+  <si>
+    <t>Team meeting. Discussed the resulkts of meeting with barabara.</t>
+  </si>
+  <si>
+    <t>Started Angular tutorial.</t>
+  </si>
+  <si>
+    <t>Worked on HIT339 assignment 1.</t>
+  </si>
+  <si>
+    <t>Finished HIT339 assignment 1.</t>
+  </si>
+  <si>
+    <t>Completed week 4 Angular Tuorial.</t>
+  </si>
+  <si>
+    <t>Restarted Week 5 Angular Tuorial.</t>
   </si>
 </sst>
 </file>
@@ -267,7 +288,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -280,8 +301,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="11">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -435,11 +462,78 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
@@ -476,6 +570,24 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -792,18 +904,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FFB8FECF-62AE-4913-A869-EE2F5B95DB99}">
-  <dimension ref="A1:U15"/>
+  <dimension ref="A1:Z15"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="D3" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="U7" workbookViewId="0">
+      <selection activeCell="Y11" sqref="Y11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="21" width="30.7109375" customWidth="1"/>
+    <col min="2" max="26" width="30.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:26" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="8" t="s">
         <v>13</v>
@@ -866,7 +978,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="2" spans="1:21" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:26" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>0</v>
       </c>
@@ -917,7 +1029,7 @@
       <c r="T2" s="2"/>
       <c r="U2" s="3"/>
     </row>
-    <row r="3" spans="1:21" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:26" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>1</v>
       </c>
@@ -976,7 +1088,7 @@
       <c r="T3" s="2"/>
       <c r="U3" s="3"/>
     </row>
-    <row r="4" spans="1:21" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:26" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
         <v>2</v>
       </c>
@@ -1017,7 +1129,7 @@
       <c r="T4" s="2"/>
       <c r="U4" s="3"/>
     </row>
-    <row r="5" spans="1:21" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:26" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
         <v>3</v>
       </c>
@@ -1056,13 +1168,19 @@
       <c r="T5" s="2"/>
       <c r="U5" s="3"/>
     </row>
-    <row r="6" spans="1:21" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:26" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
+      <c r="B6" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>73</v>
+      </c>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
@@ -1081,7 +1199,7 @@
       <c r="T6" s="2"/>
       <c r="U6" s="3"/>
     </row>
-    <row r="7" spans="1:21" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:26" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
         <v>5</v>
       </c>
@@ -1106,7 +1224,7 @@
       <c r="T7" s="2"/>
       <c r="U7" s="3"/>
     </row>
-    <row r="8" spans="1:21" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:26" ht="75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="6" t="s">
         <v>6</v>
       </c>
@@ -1131,32 +1249,79 @@
       <c r="T8" s="2"/>
       <c r="U8" s="3"/>
     </row>
-    <row r="9" spans="1:21" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:26" ht="75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
-      <c r="H9" s="2"/>
-      <c r="I9" s="2"/>
-      <c r="J9" s="2"/>
-      <c r="K9" s="2"/>
-      <c r="L9" s="2"/>
-      <c r="M9" s="2"/>
-      <c r="N9" s="2"/>
-      <c r="O9" s="2"/>
-      <c r="P9" s="2"/>
-      <c r="Q9" s="2"/>
-      <c r="R9" s="2"/>
-      <c r="S9" s="2"/>
-      <c r="T9" s="2"/>
-      <c r="U9" s="3"/>
+      <c r="B9" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="H9" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="J9" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="K9" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="L9" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="M9" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="N9" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="O9" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="P9" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q9" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="R9" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="S9" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="T9" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="U9" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="V9" s="18" t="s">
+        <v>77</v>
+      </c>
+      <c r="W9" s="17"/>
+      <c r="X9" s="17"/>
+      <c r="Y9" s="19"/>
+      <c r="Z9" s="16"/>
     </row>
-    <row r="10" spans="1:21" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:26" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
         <v>8</v>
       </c>
@@ -1181,7 +1346,7 @@
       <c r="T10" s="2"/>
       <c r="U10" s="3"/>
     </row>
-    <row r="11" spans="1:21" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:26" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
         <v>9</v>
       </c>
@@ -1206,7 +1371,7 @@
       <c r="T11" s="2"/>
       <c r="U11" s="3"/>
     </row>
-    <row r="12" spans="1:21" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:26" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
         <v>10</v>
       </c>
@@ -1231,7 +1396,7 @@
       <c r="T12" s="2"/>
       <c r="U12" s="3"/>
     </row>
-    <row r="13" spans="1:21" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:26" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
         <v>11</v>
       </c>
@@ -1256,7 +1421,7 @@
       <c r="T13" s="2"/>
       <c r="U13" s="3"/>
     </row>
-    <row r="14" spans="1:21" ht="75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:26" ht="75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="7" t="s">
         <v>12</v>
       </c>
@@ -1281,7 +1446,7 @@
       <c r="T14" s="4"/>
       <c r="U14" s="5"/>
     </row>
-    <row r="15" spans="1:21" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="15" spans="1:26" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/timesheet_DanielWilson_s266070.xlsx
+++ b/timesheet_DanielWilson_s266070.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Programming\GitHub\S220PRT585_s266070\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CAEA5A9-CB19-44E0-ABB3-AA7C2BF2475B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F6E4E16-4BAE-4AA9-AE98-C5115564F7F0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="660" yWindow="450" windowWidth="21600" windowHeight="11385" xr2:uid="{471AB8EC-D1D5-41D0-B4E5-27338561C4E5}"/>
+    <workbookView xWindow="1650" yWindow="4215" windowWidth="21600" windowHeight="11385" xr2:uid="{471AB8EC-D1D5-41D0-B4E5-27338561C4E5}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="79">
   <si>
     <t>Week 1</t>
   </si>
@@ -267,6 +267,9 @@
   </si>
   <si>
     <t>Restarted Week 5 Angular Tuorial.</t>
+  </si>
+  <si>
+    <t>Continued week 5 tutorial.</t>
   </si>
 </sst>
 </file>
@@ -308,7 +311,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="16">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -472,21 +475,6 @@
       </top>
       <bottom style="thin">
         <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
@@ -518,22 +506,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
@@ -572,22 +549,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -907,7 +878,7 @@
   <dimension ref="A1:Z15"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="U7" workbookViewId="0">
-      <selection activeCell="Y11" sqref="Y11"/>
+      <selection activeCell="V9" sqref="V9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1271,13 +1242,13 @@
       <c r="G9" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="H9" s="14" t="s">
+      <c r="H9" s="13" t="s">
         <v>74</v>
       </c>
       <c r="I9" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="J9" s="14" t="s">
+      <c r="J9" s="13" t="s">
         <v>74</v>
       </c>
       <c r="K9" s="2" t="s">
@@ -1298,7 +1269,7 @@
       <c r="P9" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="Q9" s="14" t="s">
+      <c r="Q9" s="13" t="s">
         <v>74</v>
       </c>
       <c r="R9" s="2" t="s">
@@ -1310,16 +1281,24 @@
       <c r="T9" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="U9" s="15" t="s">
+      <c r="U9" s="14" t="s">
         <v>76</v>
       </c>
-      <c r="V9" s="18" t="s">
+      <c r="V9" s="17" t="s">
         <v>77</v>
       </c>
-      <c r="W9" s="17"/>
-      <c r="X9" s="17"/>
-      <c r="Y9" s="19"/>
-      <c r="Z9" s="16"/>
+      <c r="W9" s="15" t="s">
+        <v>78</v>
+      </c>
+      <c r="X9" s="15" t="s">
+        <v>78</v>
+      </c>
+      <c r="Y9" s="15" t="s">
+        <v>78</v>
+      </c>
+      <c r="Z9" s="16" t="s">
+        <v>78</v>
+      </c>
     </row>
     <row r="10" spans="1:26" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">

--- a/timesheet_DanielWilson_s266070.xlsx
+++ b/timesheet_DanielWilson_s266070.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Programming\GitHub\S220PRT585_s266070\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F6E4E16-4BAE-4AA9-AE98-C5115564F7F0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EC17336-4F89-4D9A-A93B-D61054588A86}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1650" yWindow="4215" windowWidth="21600" windowHeight="11385" xr2:uid="{471AB8EC-D1D5-41D0-B4E5-27338561C4E5}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="79">
   <si>
     <t>Week 1</t>
   </si>
@@ -311,7 +311,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="14">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -506,11 +506,37 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
@@ -555,10 +581,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -875,18 +904,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FFB8FECF-62AE-4913-A869-EE2F5B95DB99}">
-  <dimension ref="A1:Z15"/>
+  <dimension ref="A1:AA15"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="U7" workbookViewId="0">
-      <selection activeCell="V9" sqref="V9"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="V7" workbookViewId="0">
+      <selection activeCell="Y11" sqref="Y11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="26" width="30.7109375" customWidth="1"/>
+    <col min="2" max="27" width="30.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:27" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="8" t="s">
         <v>13</v>
@@ -949,7 +978,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="2" spans="1:26" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:27" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>0</v>
       </c>
@@ -1000,7 +1029,7 @@
       <c r="T2" s="2"/>
       <c r="U2" s="3"/>
     </row>
-    <row r="3" spans="1:26" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:27" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>1</v>
       </c>
@@ -1059,7 +1088,7 @@
       <c r="T3" s="2"/>
       <c r="U3" s="3"/>
     </row>
-    <row r="4" spans="1:26" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:27" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
         <v>2</v>
       </c>
@@ -1100,7 +1129,7 @@
       <c r="T4" s="2"/>
       <c r="U4" s="3"/>
     </row>
-    <row r="5" spans="1:26" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:27" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
         <v>3</v>
       </c>
@@ -1139,7 +1168,7 @@
       <c r="T5" s="2"/>
       <c r="U5" s="3"/>
     </row>
-    <row r="6" spans="1:26" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:27" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
         <v>4</v>
       </c>
@@ -1170,7 +1199,7 @@
       <c r="T6" s="2"/>
       <c r="U6" s="3"/>
     </row>
-    <row r="7" spans="1:26" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:27" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
         <v>5</v>
       </c>
@@ -1195,7 +1224,7 @@
       <c r="T7" s="2"/>
       <c r="U7" s="3"/>
     </row>
-    <row r="8" spans="1:26" ht="75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:27" ht="75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="6" t="s">
         <v>6</v>
       </c>
@@ -1220,7 +1249,7 @@
       <c r="T8" s="2"/>
       <c r="U8" s="3"/>
     </row>
-    <row r="9" spans="1:26" ht="75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:27" ht="75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="6" t="s">
         <v>7</v>
       </c>
@@ -1284,7 +1313,7 @@
       <c r="U9" s="14" t="s">
         <v>76</v>
       </c>
-      <c r="V9" s="17" t="s">
+      <c r="V9" s="16" t="s">
         <v>77</v>
       </c>
       <c r="W9" s="15" t="s">
@@ -1296,11 +1325,14 @@
       <c r="Y9" s="15" t="s">
         <v>78</v>
       </c>
-      <c r="Z9" s="16" t="s">
+      <c r="Z9" s="17" t="s">
         <v>78</v>
       </c>
+      <c r="AA9" s="18" t="s">
+        <v>78</v>
+      </c>
     </row>
-    <row r="10" spans="1:26" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:27" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
         <v>8</v>
       </c>
@@ -1325,7 +1357,7 @@
       <c r="T10" s="2"/>
       <c r="U10" s="3"/>
     </row>
-    <row r="11" spans="1:26" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:27" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
         <v>9</v>
       </c>
@@ -1350,7 +1382,7 @@
       <c r="T11" s="2"/>
       <c r="U11" s="3"/>
     </row>
-    <row r="12" spans="1:26" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:27" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
         <v>10</v>
       </c>
@@ -1375,7 +1407,7 @@
       <c r="T12" s="2"/>
       <c r="U12" s="3"/>
     </row>
-    <row r="13" spans="1:26" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:27" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
         <v>11</v>
       </c>
@@ -1400,7 +1432,7 @@
       <c r="T13" s="2"/>
       <c r="U13" s="3"/>
     </row>
-    <row r="14" spans="1:26" ht="75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:27" ht="75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="7" t="s">
         <v>12</v>
       </c>
@@ -1425,7 +1457,7 @@
       <c r="T14" s="4"/>
       <c r="U14" s="5"/>
     </row>
-    <row r="15" spans="1:26" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="15" spans="1:27" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/timesheet_DanielWilson_s266070.xlsx
+++ b/timesheet_DanielWilson_s266070.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Programming\GitHub\S220PRT585_s266070\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EC17336-4F89-4D9A-A93B-D61054588A86}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6F1462A-00AD-487B-9EF9-DE4635174FB1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1650" yWindow="4215" windowWidth="21600" windowHeight="11385" xr2:uid="{471AB8EC-D1D5-41D0-B4E5-27338561C4E5}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="79">
   <si>
     <t>Week 1</t>
   </si>
@@ -291,7 +291,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -304,12 +304,6 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="16">
     <border>
@@ -584,10 +578,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -906,8 +900,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FFB8FECF-62AE-4913-A869-EE2F5B95DB99}">
   <dimension ref="A1:AA15"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="V7" workbookViewId="0">
-      <selection activeCell="Y11" sqref="Y11"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1325,10 +1319,10 @@
       <c r="Y9" s="15" t="s">
         <v>78</v>
       </c>
-      <c r="Z9" s="17" t="s">
+      <c r="Z9" s="18" t="s">
         <v>78</v>
       </c>
-      <c r="AA9" s="18" t="s">
+      <c r="AA9" s="17" t="s">
         <v>78</v>
       </c>
     </row>
@@ -1336,7 +1330,9 @@
       <c r="A10" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="2"/>
+      <c r="B10" s="2" t="s">
+        <v>78</v>
+      </c>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>

--- a/timesheet_DanielWilson_s266070.xlsx
+++ b/timesheet_DanielWilson_s266070.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Programming\GitHub\S220PRT585_s266070\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6F1462A-00AD-487B-9EF9-DE4635174FB1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E3A59A0-58AE-44AB-93F9-0076A247F04F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1650" yWindow="4215" windowWidth="21600" windowHeight="11385" xr2:uid="{471AB8EC-D1D5-41D0-B4E5-27338561C4E5}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="79">
   <si>
     <t>Week 1</t>
   </si>
@@ -291,7 +291,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -304,6 +304,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="16">
     <border>
@@ -530,7 +536,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
@@ -582,6 +588,9 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -901,7 +910,7 @@
   <dimension ref="A1:AA15"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1333,7 +1342,9 @@
       <c r="B10" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="C10" s="2"/>
+      <c r="C10" s="19" t="s">
+        <v>78</v>
+      </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>

--- a/timesheet_DanielWilson_s266070.xlsx
+++ b/timesheet_DanielWilson_s266070.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Programming\GitHub\S220PRT585_s266070\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E3A59A0-58AE-44AB-93F9-0076A247F04F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3657074B-7366-4211-9E61-779924C22794}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1650" yWindow="4215" windowWidth="21600" windowHeight="11385" xr2:uid="{471AB8EC-D1D5-41D0-B4E5-27338561C4E5}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="81">
   <si>
     <t>Week 1</t>
   </si>
@@ -270,6 +270,12 @@
   </si>
   <si>
     <t>Continued week 5 tutorial.</t>
+  </si>
+  <si>
+    <t>Worked on Guzzi's Angular tutorial.</t>
+  </si>
+  <si>
+    <t>Finished on Guzzi's Angular tutorial.</t>
   </si>
 </sst>
 </file>
@@ -909,8 +915,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FFB8FECF-62AE-4913-A869-EE2F5B95DB99}">
   <dimension ref="A1:AA15"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="D7" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1345,9 +1351,15 @@
       <c r="C10" s="19" t="s">
         <v>78</v>
       </c>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
+      <c r="D10" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>80</v>
+      </c>
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
       <c r="I10" s="2"/>

--- a/timesheet_DanielWilson_s266070.xlsx
+++ b/timesheet_DanielWilson_s266070.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Programming\GitHub\S220PRT585_s266070\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3657074B-7366-4211-9E61-779924C22794}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDB4AD35-0BBF-47E1-9181-8A4ACBED05B2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1650" yWindow="4215" windowWidth="21600" windowHeight="11385" xr2:uid="{471AB8EC-D1D5-41D0-B4E5-27338561C4E5}"/>
+    <workbookView xWindow="2055" yWindow="1560" windowWidth="21600" windowHeight="11385" xr2:uid="{471AB8EC-D1D5-41D0-B4E5-27338561C4E5}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="82">
   <si>
     <t>Week 1</t>
   </si>
@@ -276,6 +276,9 @@
   </si>
   <si>
     <t>Finished on Guzzi's Angular tutorial.</t>
+  </si>
+  <si>
+    <t>Team meeting. Also working together on N-tier integration and the Shop module.</t>
   </si>
 </sst>
 </file>
@@ -915,8 +918,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FFB8FECF-62AE-4913-A869-EE2F5B95DB99}">
   <dimension ref="A1:AA15"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="D7" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="G7" workbookViewId="0">
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1360,9 +1363,15 @@
       <c r="F10" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="G10" s="2"/>
-      <c r="H10" s="2"/>
-      <c r="I10" s="2"/>
+      <c r="G10" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="H10" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="I10" s="10" t="s">
+        <v>81</v>
+      </c>
       <c r="J10" s="2"/>
       <c r="K10" s="2"/>
       <c r="L10" s="2"/>
@@ -1385,7 +1394,7 @@
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
-      <c r="G11" s="2"/>
+      <c r="G11" s="13"/>
       <c r="H11" s="2"/>
       <c r="I11" s="2"/>
       <c r="J11" s="2"/>

--- a/timesheet_DanielWilson_s266070.xlsx
+++ b/timesheet_DanielWilson_s266070.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Programming\GitHub\S220PRT585_s266070\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDB4AD35-0BBF-47E1-9181-8A4ACBED05B2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{869D410E-CACC-48FB-8492-19659E24DDC2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2055" yWindow="1560" windowWidth="21600" windowHeight="11385" xr2:uid="{471AB8EC-D1D5-41D0-B4E5-27338561C4E5}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="86">
   <si>
     <t>Week 1</t>
   </si>
@@ -279,6 +279,18 @@
   </si>
   <si>
     <t>Team meeting. Also working together on N-tier integration and the Shop module.</t>
+  </si>
+  <si>
+    <t>Worked on N-tier arctecture implementaion for Group project.</t>
+  </si>
+  <si>
+    <t>Finished on N-tier arctecture implementaion for Group project. Started progress report.</t>
+  </si>
+  <si>
+    <t>Worked on progress report.</t>
+  </si>
+  <si>
+    <t>Finished progress report.</t>
   </si>
 </sst>
 </file>
@@ -300,7 +312,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -310,12 +322,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -545,7 +551,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
@@ -597,9 +603,6 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -918,8 +921,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FFB8FECF-62AE-4913-A869-EE2F5B95DB99}">
   <dimension ref="A1:AA15"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="G7" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="J7" workbookViewId="0">
+      <selection activeCell="N11" sqref="N11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1351,7 +1354,7 @@
       <c r="B10" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="C10" s="19" t="s">
+      <c r="C10" s="13" t="s">
         <v>78</v>
       </c>
       <c r="D10" s="2" t="s">
@@ -1372,11 +1375,21 @@
       <c r="I10" s="10" t="s">
         <v>81</v>
       </c>
-      <c r="J10" s="2"/>
-      <c r="K10" s="2"/>
-      <c r="L10" s="2"/>
-      <c r="M10" s="2"/>
-      <c r="N10" s="2"/>
+      <c r="J10" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="K10" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="L10" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="M10" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="N10" s="2" t="s">
+        <v>85</v>
+      </c>
       <c r="O10" s="2"/>
       <c r="P10" s="2"/>
       <c r="Q10" s="2"/>

--- a/timesheet_DanielWilson_s266070.xlsx
+++ b/timesheet_DanielWilson_s266070.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Programming\GitHub\S220PRT585_s266070\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{869D410E-CACC-48FB-8492-19659E24DDC2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAE76D16-9602-49D6-8E89-CA09E4AB4D2E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2055" yWindow="1560" windowWidth="21600" windowHeight="11385" xr2:uid="{471AB8EC-D1D5-41D0-B4E5-27338561C4E5}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="87">
   <si>
     <t>Week 1</t>
   </si>
@@ -291,6 +291,9 @@
   </si>
   <si>
     <t>Finished progress report.</t>
+  </si>
+  <si>
+    <t>Team meeting. Worked together in person on project.</t>
   </si>
 </sst>
 </file>
@@ -494,13 +497,28 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
       <right style="thin">
         <color indexed="64"/>
       </right>
       <top style="medium">
         <color indexed="64"/>
       </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
       <bottom style="medium">
         <color indexed="64"/>
       </bottom>
@@ -513,18 +531,7 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="medium">
+      <top style="thin">
         <color indexed="64"/>
       </top>
       <bottom style="medium">
@@ -542,7 +549,7 @@
       <top style="medium">
         <color indexed="64"/>
       </top>
-      <bottom style="medium">
+      <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -593,16 +600,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -921,8 +928,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FFB8FECF-62AE-4913-A869-EE2F5B95DB99}">
   <dimension ref="A1:AA15"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="J7" workbookViewId="0">
-      <selection activeCell="N11" sqref="N11"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="Q7" workbookViewId="0">
+      <selection activeCell="T10" sqref="T10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1264,7 +1271,7 @@
       <c r="T8" s="2"/>
       <c r="U8" s="3"/>
     </row>
-    <row r="9" spans="1:27" ht="75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:27" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
         <v>7</v>
       </c>
@@ -1331,23 +1338,23 @@
       <c r="V9" s="16" t="s">
         <v>77</v>
       </c>
-      <c r="W9" s="15" t="s">
+      <c r="W9" s="16" t="s">
         <v>78</v>
       </c>
-      <c r="X9" s="15" t="s">
+      <c r="X9" s="16" t="s">
         <v>78</v>
       </c>
-      <c r="Y9" s="15" t="s">
+      <c r="Y9" s="16" t="s">
         <v>78</v>
       </c>
-      <c r="Z9" s="18" t="s">
+      <c r="Z9" s="16" t="s">
         <v>78</v>
       </c>
-      <c r="AA9" s="17" t="s">
+      <c r="AA9" s="18" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="10" spans="1:27" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:27" ht="75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="6" t="s">
         <v>8</v>
       </c>
@@ -1390,13 +1397,31 @@
       <c r="N10" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="O10" s="2"/>
-      <c r="P10" s="2"/>
-      <c r="Q10" s="2"/>
-      <c r="R10" s="2"/>
-      <c r="S10" s="2"/>
-      <c r="T10" s="2"/>
-      <c r="U10" s="3"/>
+      <c r="O10" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="P10" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q10" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="R10" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="S10" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="T10" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="U10" s="2"/>
+      <c r="V10" s="17"/>
+      <c r="W10" s="15"/>
+      <c r="X10" s="15"/>
+      <c r="Y10" s="15"/>
+      <c r="Z10" s="15"/>
+      <c r="AA10" s="15"/>
     </row>
     <row r="11" spans="1:27" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">

--- a/timesheet_DanielWilson_s266070.xlsx
+++ b/timesheet_DanielWilson_s266070.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Programming\GitHub\S220PRT585_s266070\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAE76D16-9602-49D6-8E89-CA09E4AB4D2E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4588E18-F329-4E10-96C9-4642D89037E7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2055" yWindow="1560" windowWidth="21600" windowHeight="11385" xr2:uid="{471AB8EC-D1D5-41D0-B4E5-27338561C4E5}"/>
+    <workbookView xWindow="1425" yWindow="1275" windowWidth="21600" windowHeight="11385" xr2:uid="{471AB8EC-D1D5-41D0-B4E5-27338561C4E5}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="89">
   <si>
     <t>Week 1</t>
   </si>
@@ -294,6 +294,12 @@
   </si>
   <si>
     <t>Team meeting. Worked together in person on project.</t>
+  </si>
+  <si>
+    <t>Team meeting. Discussed changing database schema.</t>
+  </si>
+  <si>
+    <t>Team meeting. Worked together to try and make large changes to the database schema.</t>
   </si>
 </sst>
 </file>
@@ -606,10 +612,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -928,8 +934,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FFB8FECF-62AE-4913-A869-EE2F5B95DB99}">
   <dimension ref="A1:AA15"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="Q7" workbookViewId="0">
-      <selection activeCell="T10" sqref="T10"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="S8" workbookViewId="0">
+      <selection activeCell="X10" sqref="X10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1350,7 +1356,7 @@
       <c r="Z9" s="16" t="s">
         <v>78</v>
       </c>
-      <c r="AA9" s="18" t="s">
+      <c r="AA9" s="17" t="s">
         <v>78</v>
       </c>
     </row>
@@ -1415,9 +1421,15 @@
       <c r="T10" s="13" t="s">
         <v>78</v>
       </c>
-      <c r="U10" s="2"/>
-      <c r="V10" s="17"/>
-      <c r="W10" s="15"/>
+      <c r="U10" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="V10" s="18" t="s">
+        <v>88</v>
+      </c>
+      <c r="W10" s="18" t="s">
+        <v>88</v>
+      </c>
       <c r="X10" s="15"/>
       <c r="Y10" s="15"/>
       <c r="Z10" s="15"/>

--- a/timesheet_DanielWilson_s266070.xlsx
+++ b/timesheet_DanielWilson_s266070.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Programming\GitHub\S220PRT585_s266070\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\S220PRT585_s266070\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4588E18-F329-4E10-96C9-4642D89037E7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E2C8A5E-843B-400C-AFCC-305036B664BE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1425" yWindow="1275" windowWidth="21600" windowHeight="11385" xr2:uid="{471AB8EC-D1D5-41D0-B4E5-27338561C4E5}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{471AB8EC-D1D5-41D0-B4E5-27338561C4E5}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="91">
   <si>
     <t>Week 1</t>
   </si>
@@ -300,6 +300,12 @@
   </si>
   <si>
     <t>Team meeting. Worked together to try and make large changes to the database schema.</t>
+  </si>
+  <si>
+    <t>Team meeting. Tried to fix database schema problems.</t>
+  </si>
+  <si>
+    <t>Team meeting. Worked on week 5 tutorial.</t>
   </si>
 </sst>
 </file>
@@ -564,7 +570,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
@@ -616,6 +622,9 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -934,16 +943,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FFB8FECF-62AE-4913-A869-EE2F5B95DB99}">
   <dimension ref="A1:AA15"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="S8" workbookViewId="0">
-      <selection activeCell="X10" sqref="X10"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="V8" workbookViewId="0">
+      <selection activeCell="AA10" sqref="AA10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="27" width="30.7109375" customWidth="1"/>
+    <col min="2" max="27" width="30.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:27" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1"/>
       <c r="B1" s="8" t="s">
         <v>13</v>
@@ -1006,7 +1015,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="2" spans="1:27" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:27" ht="75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
         <v>0</v>
       </c>
@@ -1057,7 +1066,7 @@
       <c r="T2" s="2"/>
       <c r="U2" s="3"/>
     </row>
-    <row r="3" spans="1:27" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:27" ht="75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
         <v>1</v>
       </c>
@@ -1116,7 +1125,7 @@
       <c r="T3" s="2"/>
       <c r="U3" s="3"/>
     </row>
-    <row r="4" spans="1:27" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:27" ht="75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
         <v>2</v>
       </c>
@@ -1157,7 +1166,7 @@
       <c r="T4" s="2"/>
       <c r="U4" s="3"/>
     </row>
-    <row r="5" spans="1:27" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:27" ht="75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="s">
         <v>3</v>
       </c>
@@ -1196,7 +1205,7 @@
       <c r="T5" s="2"/>
       <c r="U5" s="3"/>
     </row>
-    <row r="6" spans="1:27" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:27" ht="75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
         <v>4</v>
       </c>
@@ -1227,7 +1236,7 @@
       <c r="T6" s="2"/>
       <c r="U6" s="3"/>
     </row>
-    <row r="7" spans="1:27" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:27" ht="75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
         <v>5</v>
       </c>
@@ -1252,7 +1261,7 @@
       <c r="T7" s="2"/>
       <c r="U7" s="3"/>
     </row>
-    <row r="8" spans="1:27" ht="75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:27" ht="75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="6" t="s">
         <v>6</v>
       </c>
@@ -1277,7 +1286,7 @@
       <c r="T8" s="2"/>
       <c r="U8" s="3"/>
     </row>
-    <row r="9" spans="1:27" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:27" ht="75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="6" t="s">
         <v>7</v>
       </c>
@@ -1360,7 +1369,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="10" spans="1:27" ht="75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:27" ht="75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="6" t="s">
         <v>8</v>
       </c>
@@ -1430,12 +1439,18 @@
       <c r="W10" s="18" t="s">
         <v>88</v>
       </c>
-      <c r="X10" s="15"/>
-      <c r="Y10" s="15"/>
-      <c r="Z10" s="15"/>
+      <c r="X10" s="19" t="s">
+        <v>89</v>
+      </c>
+      <c r="Y10" s="19" t="s">
+        <v>90</v>
+      </c>
+      <c r="Z10" s="19" t="s">
+        <v>90</v>
+      </c>
       <c r="AA10" s="15"/>
     </row>
-    <row r="11" spans="1:27" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:27" ht="75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="6" t="s">
         <v>9</v>
       </c>
@@ -1460,7 +1475,7 @@
       <c r="T11" s="2"/>
       <c r="U11" s="3"/>
     </row>
-    <row r="12" spans="1:27" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:27" ht="75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="6" t="s">
         <v>10</v>
       </c>
@@ -1485,7 +1500,7 @@
       <c r="T12" s="2"/>
       <c r="U12" s="3"/>
     </row>
-    <row r="13" spans="1:27" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:27" ht="75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="6" t="s">
         <v>11</v>
       </c>
@@ -1510,7 +1525,7 @@
       <c r="T13" s="2"/>
       <c r="U13" s="3"/>
     </row>
-    <row r="14" spans="1:27" ht="75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:27" ht="75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="7" t="s">
         <v>12</v>
       </c>
@@ -1535,7 +1550,7 @@
       <c r="T14" s="4"/>
       <c r="U14" s="5"/>
     </row>
-    <row r="15" spans="1:27" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="15" spans="1:27" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/timesheet_DanielWilson_s266070.xlsx
+++ b/timesheet_DanielWilson_s266070.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\S220PRT585_s266070\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E2C8A5E-843B-400C-AFCC-305036B664BE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68B42ED2-D646-41C1-8A4C-27EB770FA496}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{471AB8EC-D1D5-41D0-B4E5-27338561C4E5}"/>
   </bookViews>

--- a/timesheet_DanielWilson_s266070.xlsx
+++ b/timesheet_DanielWilson_s266070.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\S220PRT585_s266070\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68B42ED2-D646-41C1-8A4C-27EB770FA496}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33E4317F-E9B4-4093-8413-5B510AAFB15D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{471AB8EC-D1D5-41D0-B4E5-27338561C4E5}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="93">
   <si>
     <t>Week 1</t>
   </si>
@@ -306,6 +306,12 @@
   </si>
   <si>
     <t>Team meeting. Worked on week 5 tutorial.</t>
+  </si>
+  <si>
+    <t>Worked on project.</t>
+  </si>
+  <si>
+    <t>Team meting worked on project.</t>
   </si>
 </sst>
 </file>
@@ -943,8 +949,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FFB8FECF-62AE-4913-A869-EE2F5B95DB99}">
   <dimension ref="A1:AA15"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="V8" workbookViewId="0">
-      <selection activeCell="AA10" sqref="AA10"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1479,8 +1485,12 @@
       <c r="A12" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
+      <c r="B12" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>91</v>
+      </c>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>

--- a/timesheet_DanielWilson_s266070.xlsx
+++ b/timesheet_DanielWilson_s266070.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\S220PRT585_s266070\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33E4317F-E9B4-4093-8413-5B510AAFB15D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DA9D610-F4CF-4EA6-BC47-6BBE771FFA0B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{471AB8EC-D1D5-41D0-B4E5-27338561C4E5}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="93">
   <si>
     <t>Week 1</t>
   </si>
@@ -950,7 +950,7 @@
   <dimension ref="A1:AA15"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1491,10 +1491,18 @@
       <c r="C12" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2"/>
+      <c r="D12" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="E12" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="F12" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="G12" s="10" t="s">
+        <v>92</v>
+      </c>
       <c r="H12" s="2"/>
       <c r="I12" s="2"/>
       <c r="J12" s="2"/>

--- a/timesheet_DanielWilson_s266070.xlsx
+++ b/timesheet_DanielWilson_s266070.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\S220PRT585_s266070\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DA9D610-F4CF-4EA6-BC47-6BBE771FFA0B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED8AE3E3-B97C-416A-977F-EC611CA2552B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{471AB8EC-D1D5-41D0-B4E5-27338561C4E5}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="96">
   <si>
     <t>Week 1</t>
   </si>
@@ -312,6 +312,15 @@
   </si>
   <si>
     <t>Team meting worked on project.</t>
+  </si>
+  <si>
+    <t>Groomed a bunch of trello tasks. Worked on project trying to identify problem with submission of items.</t>
+  </si>
+  <si>
+    <t>Continued working on project. Relolved issue and once again proved im retarded.</t>
+  </si>
+  <si>
+    <t>Team meeting for hit339. Talked about what assignment 2 requirments were and what needed to be done.</t>
   </si>
 </sst>
 </file>
@@ -333,7 +342,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -343,6 +352,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -576,7 +591,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
@@ -631,6 +646,9 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -949,8 +967,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FFB8FECF-62AE-4913-A869-EE2F5B95DB99}">
   <dimension ref="A1:AA15"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="F9" workbookViewId="0">
+      <selection activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1503,10 +1521,18 @@
       <c r="G12" s="10" t="s">
         <v>92</v>
       </c>
-      <c r="H12" s="2"/>
-      <c r="I12" s="2"/>
-      <c r="J12" s="2"/>
-      <c r="K12" s="2"/>
+      <c r="H12" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="J12" s="20" t="s">
+        <v>95</v>
+      </c>
+      <c r="K12" s="20" t="s">
+        <v>95</v>
+      </c>
       <c r="L12" s="2"/>
       <c r="M12" s="2"/>
       <c r="N12" s="2"/>

--- a/timesheet_DanielWilson_s266070.xlsx
+++ b/timesheet_DanielWilson_s266070.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\S220PRT585_s266070\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED8AE3E3-B97C-416A-977F-EC611CA2552B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F6F0865-C44F-435B-8938-0570921BDF1F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{471AB8EC-D1D5-41D0-B4E5-27338561C4E5}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="96">
   <si>
     <t>Week 1</t>
   </si>
@@ -967,8 +967,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FFB8FECF-62AE-4913-A869-EE2F5B95DB99}">
   <dimension ref="A1:AA15"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="F9" workbookViewId="0">
-      <selection activeCell="K12" sqref="K12"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="G9" workbookViewId="0">
+      <selection activeCell="L13" sqref="L13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1533,7 +1533,9 @@
       <c r="K12" s="20" t="s">
         <v>95</v>
       </c>
-      <c r="L12" s="2"/>
+      <c r="L12" s="2" t="s">
+        <v>91</v>
+      </c>
       <c r="M12" s="2"/>
       <c r="N12" s="2"/>
       <c r="O12" s="2"/>

--- a/timesheet_DanielWilson_s266070.xlsx
+++ b/timesheet_DanielWilson_s266070.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\S220PRT585_s266070\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F6F0865-C44F-435B-8938-0570921BDF1F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{614840F7-C262-4D05-A82B-37670496CF6D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{471AB8EC-D1D5-41D0-B4E5-27338561C4E5}"/>
+    <workbookView xWindow="768" yWindow="768" windowWidth="17280" windowHeight="8964" xr2:uid="{471AB8EC-D1D5-41D0-B4E5-27338561C4E5}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="97">
   <si>
     <t>Week 1</t>
   </si>
@@ -321,6 +321,9 @@
   </si>
   <si>
     <t>Team meeting for hit339. Talked about what assignment 2 requirments were and what needed to be done.</t>
+  </si>
+  <si>
+    <t>Worked on HIT339 assignment 2.</t>
   </si>
 </sst>
 </file>
@@ -967,8 +970,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FFB8FECF-62AE-4913-A869-EE2F5B95DB99}">
   <dimension ref="A1:AA15"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="G9" workbookViewId="0">
-      <selection activeCell="L13" sqref="L13"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1550,7 +1553,9 @@
       <c r="A13" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="B13" s="2"/>
+      <c r="B13" s="2" t="s">
+        <v>96</v>
+      </c>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>

--- a/timesheet_DanielWilson_s266070.xlsx
+++ b/timesheet_DanielWilson_s266070.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\S220PRT585_s266070\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{614840F7-C262-4D05-A82B-37670496CF6D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01178D2C-A896-4689-AB7D-1ACAB576E097}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="768" yWindow="768" windowWidth="17280" windowHeight="8964" xr2:uid="{471AB8EC-D1D5-41D0-B4E5-27338561C4E5}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="98">
   <si>
     <t>Week 1</t>
   </si>
@@ -324,6 +324,9 @@
   </si>
   <si>
     <t>Worked on HIT339 assignment 2.</t>
+  </si>
+  <si>
+    <t>Team meeting for hit339. Worked together on assignment 2.</t>
   </si>
 </sst>
 </file>
@@ -971,7 +974,7 @@
   <dimension ref="A1:AA15"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1556,8 +1559,12 @@
       <c r="B13" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
+      <c r="C13" s="20" t="s">
+        <v>97</v>
+      </c>
+      <c r="D13" s="20" t="s">
+        <v>97</v>
+      </c>
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>

--- a/timesheet_DanielWilson_s266070.xlsx
+++ b/timesheet_DanielWilson_s266070.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\S220PRT585_s266070\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01178D2C-A896-4689-AB7D-1ACAB576E097}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B6597A9-DF27-450A-BFCB-CD9D4C406214}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="768" yWindow="768" windowWidth="17280" windowHeight="8964" xr2:uid="{471AB8EC-D1D5-41D0-B4E5-27338561C4E5}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="98">
   <si>
     <t>Week 1</t>
   </si>
@@ -973,8 +973,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FFB8FECF-62AE-4913-A869-EE2F5B95DB99}">
   <dimension ref="A1:AA15"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="D12" workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1565,8 +1565,12 @@
       <c r="D13" s="20" t="s">
         <v>97</v>
       </c>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
+      <c r="E13" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>96</v>
+      </c>
       <c r="G13" s="2"/>
       <c r="H13" s="2"/>
       <c r="I13" s="2"/>

--- a/timesheet_DanielWilson_s266070.xlsx
+++ b/timesheet_DanielWilson_s266070.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\S220PRT585_s266070\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B6597A9-DF27-450A-BFCB-CD9D4C406214}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B450F2F-B090-4C89-A0FD-7D4F4FA82590}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="768" yWindow="768" windowWidth="17280" windowHeight="8964" xr2:uid="{471AB8EC-D1D5-41D0-B4E5-27338561C4E5}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="99">
   <si>
     <t>Week 1</t>
   </si>
@@ -327,6 +327,9 @@
   </si>
   <si>
     <t>Team meeting for hit339. Worked together on assignment 2.</t>
+  </si>
+  <si>
+    <t>Worked on HIT339 assignment 2. finished implementing identity.</t>
   </si>
 </sst>
 </file>
@@ -348,7 +351,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -364,6 +367,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -597,7 +606,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
@@ -655,6 +664,9 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -974,7 +986,7 @@
   <dimension ref="A1:AA15"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="D12" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1568,10 +1580,12 @@
       <c r="E13" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="F13" s="2" t="s">
+      <c r="F13" s="21" t="s">
         <v>96</v>
       </c>
-      <c r="G13" s="2"/>
+      <c r="G13" s="2" t="s">
+        <v>98</v>
+      </c>
       <c r="H13" s="2"/>
       <c r="I13" s="2"/>
       <c r="J13" s="2"/>

--- a/timesheet_DanielWilson_s266070.xlsx
+++ b/timesheet_DanielWilson_s266070.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\S220PRT585_s266070\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B450F2F-B090-4C89-A0FD-7D4F4FA82590}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AABC5D45-960B-4C24-AD8A-61B7046500B8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="768" yWindow="768" windowWidth="17280" windowHeight="8964" xr2:uid="{471AB8EC-D1D5-41D0-B4E5-27338561C4E5}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="99">
   <si>
     <t>Week 1</t>
   </si>
@@ -985,8 +985,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FFB8FECF-62AE-4913-A869-EE2F5B95DB99}">
   <dimension ref="A1:AA15"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="D12" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="E12" workbookViewId="0">
+      <selection activeCell="L13" sqref="L13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1586,11 +1586,21 @@
       <c r="G13" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="H13" s="2"/>
-      <c r="I13" s="2"/>
-      <c r="J13" s="2"/>
-      <c r="K13" s="2"/>
-      <c r="L13" s="2"/>
+      <c r="H13" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="K13" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="L13" s="2" t="s">
+        <v>96</v>
+      </c>
       <c r="M13" s="2"/>
       <c r="N13" s="2"/>
       <c r="O13" s="2"/>

--- a/timesheet_DanielWilson_s266070.xlsx
+++ b/timesheet_DanielWilson_s266070.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\S220PRT585_s266070\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AABC5D45-960B-4C24-AD8A-61B7046500B8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7DA8450-9877-450C-9150-B1334CB83021}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="768" yWindow="768" windowWidth="17280" windowHeight="8964" xr2:uid="{471AB8EC-D1D5-41D0-B4E5-27338561C4E5}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="103">
   <si>
     <t>Week 1</t>
   </si>
@@ -330,6 +330,18 @@
   </si>
   <si>
     <t>Worked on HIT339 assignment 2. finished implementing identity.</t>
+  </si>
+  <si>
+    <t>Team meeting discussed what we needed to include in the presentation as well as what needs to be done before final submition.</t>
+  </si>
+  <si>
+    <t>Team meeting. Finished up what we were working on at the time. Decided to submit project unfinished.</t>
+  </si>
+  <si>
+    <t>Cleaned up trello and expanded on some of the less clear explanations.</t>
+  </si>
+  <si>
+    <t>Worked on HIT339 assignment 2. Becoming very worried about teammates not working. They were suppose to be done 3 days ago, still havent seen any work from them.</t>
   </si>
 </sst>
 </file>
@@ -351,7 +363,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -367,12 +379,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -606,7 +612,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
@@ -664,9 +670,6 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -985,8 +988,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FFB8FECF-62AE-4913-A869-EE2F5B95DB99}">
   <dimension ref="A1:AA15"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="E12" workbookViewId="0">
-      <selection activeCell="L13" sqref="L13"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="O12" workbookViewId="0">
+      <selection activeCell="R13" sqref="R13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1580,7 +1583,7 @@
       <c r="E13" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="F13" s="21" t="s">
+      <c r="F13" s="13" t="s">
         <v>96</v>
       </c>
       <c r="G13" s="2" t="s">
@@ -1601,11 +1604,21 @@
       <c r="L13" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="M13" s="2"/>
-      <c r="N13" s="2"/>
-      <c r="O13" s="2"/>
-      <c r="P13" s="2"/>
-      <c r="Q13" s="2"/>
+      <c r="M13" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="N13" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="O13" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="P13" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="Q13" s="2" t="s">
+        <v>102</v>
+      </c>
       <c r="R13" s="2"/>
       <c r="S13" s="2"/>
       <c r="T13" s="2"/>

--- a/timesheet_DanielWilson_s266070.xlsx
+++ b/timesheet_DanielWilson_s266070.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\S220PRT585_s266070\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7DA8450-9877-450C-9150-B1334CB83021}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{844A65E7-B20D-4ED3-9015-56DB28926B78}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="768" yWindow="768" windowWidth="17280" windowHeight="8964" xr2:uid="{471AB8EC-D1D5-41D0-B4E5-27338561C4E5}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="107">
   <si>
     <t>Week 1</t>
   </si>
@@ -342,6 +342,18 @@
   </si>
   <si>
     <t>Worked on HIT339 assignment 2. Becoming very worried about teammates not working. They were suppose to be done 3 days ago, still havent seen any work from them.</t>
+  </si>
+  <si>
+    <t>Team meeting. Created presentation powerpoint.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Team meeting.  Assigned slides to group members and broke to practice individually. </t>
+  </si>
+  <si>
+    <t>Practiced my portion of the presentation.</t>
+  </si>
+  <si>
+    <t>Team meeting. Guzzi and I practiced our portions of te presentation. Needed to redo the demo video as the previous one was to long.</t>
   </si>
 </sst>
 </file>
@@ -612,7 +624,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
@@ -670,6 +682,9 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -988,8 +1003,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FFB8FECF-62AE-4913-A869-EE2F5B95DB99}">
   <dimension ref="A1:AA15"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="O12" workbookViewId="0">
-      <selection activeCell="R13" sqref="R13"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="R12" workbookViewId="0">
+      <selection activeCell="U13" sqref="U13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1619,10 +1634,18 @@
       <c r="Q13" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="R13" s="2"/>
-      <c r="S13" s="2"/>
-      <c r="T13" s="2"/>
-      <c r="U13" s="3"/>
+      <c r="R13" s="10" t="s">
+        <v>103</v>
+      </c>
+      <c r="S13" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="T13" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="U13" s="21" t="s">
+        <v>106</v>
+      </c>
     </row>
     <row r="14" spans="1:27" ht="75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="7" t="s">
